--- a/data/network_properties.xlsx
+++ b/data/network_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ananyagangadhar/Desktop/M.Eng Project/Shortages_network/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{593521D9-FFAE-5249-9C41-3AE67296EE5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DFF805CD-39FC-AB43-AD14-30A8AC7282E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="460" windowWidth="14160" windowHeight="16380"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="network_properties" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="16">
   <si>
     <t>1st_q</t>
   </si>
@@ -923,17 +923,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1171,7 +1167,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1197,7 +1193,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1212,18 +1208,18 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1.5977241621138499E-5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>9.3159130327423506E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1238,18 +1234,18 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>1.5977241621138499E-5</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>9.3159130327423506E-9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1264,18 +1260,18 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1.7396244384518201E-5</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1.5203271606982401E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1290,18 +1286,18 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>4.8926585658219802E-5</v>
+        <v>1.7396244384518201E-5</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>3.5767598815829998E-8</v>
+        <v>1.5203271606982401E-8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1316,18 +1312,18 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>4.8926585658219802E-5</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>3.5767598815829998E-8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1342,18 +1338,18 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>2.12606303151575E-5</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>1.08750027187506E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1368,18 +1364,18 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>1.98581222273096E-6</v>
+        <v>2.12606303151575E-5</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>1.3588010343327501E-9</v>
+        <v>1.08750027187506E-8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1394,18 +1390,18 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>3.6706569154442099E-5</v>
+        <v>1.98581222273096E-6</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>1.8628478002254299E-8</v>
+        <v>1.3588010343327501E-9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1420,18 +1416,18 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>3.48929869811436E-5</v>
+        <v>3.6706569154442099E-5</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>3.0085289140802701E-8</v>
+        <v>1.8628478002254299E-8</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1446,18 +1442,18 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>7.9160581196987102E-7</v>
+        <v>3.48929869811436E-5</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>4.9755236453166005E-10</v>
+        <v>3.0085289140802701E-8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1472,567 +1468,567 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>7.9160581196987102E-7</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>4.9755236453166005E-10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1">
-        <v>6.43915003219575E-4</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>6.43915003219575E-4</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>1.28783000643915E-3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>9.26370211624557E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="1">
-        <v>6.3011972274732201E-4</v>
+        <v>6.43915003219575E-4</v>
       </c>
       <c r="D23" s="1">
-        <v>6.3011972274732201E-4</v>
+        <v>6.43915003219575E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>1.28783000643915E-3</v>
       </c>
       <c r="F23" s="1">
-        <v>1.2602394454946399E-3</v>
+        <v>1.28783000643915E-3</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>9.10922445541731E-4</v>
+        <v>9.26370211624557E-4</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1">
-        <v>1.22850122850122E-3</v>
+        <v>6.3011972274732201E-4</v>
       </c>
       <c r="D24" s="1">
-        <v>1.22850122850122E-3</v>
+        <v>6.3011972274732201E-4</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>1.2602394454946399E-3</v>
       </c>
       <c r="F24" s="1">
-        <v>2.45700245700245E-3</v>
+        <v>1.2602394454946399E-3</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>1.2111119155318001E-3</v>
+        <v>9.10922445541731E-4</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="1">
-        <v>1.19904076738609E-3</v>
+        <v>1.22850122850122E-3</v>
       </c>
       <c r="D25" s="1">
-        <v>1.19904076738609E-3</v>
+        <v>1.22850122850122E-3</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1.22850122850122E-3</v>
       </c>
       <c r="F25" s="1">
-        <v>1.34892086330935E-3</v>
+        <v>2.45700245700245E-3</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>1.18646844058605E-3</v>
+        <v>1.2111119155318001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1">
-        <v>1.1655011655011601E-3</v>
+        <v>1.19904076738609E-3</v>
       </c>
       <c r="D26" s="1">
-        <v>1.1655011655011601E-3</v>
+        <v>1.19904076738609E-3</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>1.34892086330935E-3</v>
       </c>
       <c r="F26" s="1">
-        <v>1.74825174825174E-3</v>
+        <v>1.34892086330935E-3</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>1.3377355835131001E-3</v>
+        <v>1.18646844058605E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="1">
-        <v>1.3157894736842101E-3</v>
+        <v>1.1655011655011601E-3</v>
       </c>
       <c r="D27" s="1">
-        <v>1.3157894736842101E-3</v>
+        <v>1.1655011655011601E-3</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>1.74825174825174E-3</v>
       </c>
       <c r="F27" s="1">
-        <v>1.3157894736842101E-3</v>
+        <v>1.74825174825174E-3</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>1.31406044678055E-3</v>
+        <v>1.3377355835131001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="1">
-        <v>1.30718954248366E-3</v>
+        <v>1.3157894736842101E-3</v>
       </c>
       <c r="D28" s="1">
-        <v>1.30718954248366E-3</v>
+        <v>1.3157894736842101E-3</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>1.3157894736842101E-3</v>
       </c>
       <c r="F28" s="1">
-        <v>2.6143790849673201E-3</v>
+        <v>1.3157894736842101E-3</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>1.4846669738391399E-3</v>
+        <v>1.31406044678055E-3</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1">
-        <v>5.6211354693648096E-4</v>
+        <v>1.30718954248366E-3</v>
       </c>
       <c r="D29" s="1">
-        <v>5.6211354693648096E-4</v>
+        <v>1.30718954248366E-3</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>1.30718954248366E-3</v>
       </c>
       <c r="F29" s="1">
-        <v>1.12422709387296E-3</v>
+        <v>2.6143790849673201E-3</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>7.63695464985799E-4</v>
+        <v>1.4846669738391399E-3</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1">
-        <v>9.7560975609756097E-4</v>
+        <v>5.6211354693648096E-4</v>
       </c>
       <c r="D30" s="1">
-        <v>9.7560975609756097E-4</v>
+        <v>5.6211354693648096E-4</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>1.12422709387296E-3</v>
       </c>
       <c r="F30" s="1">
-        <v>1.95121951219512E-3</v>
+        <v>1.12422709387296E-3</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>9.8702039651975509E-4</v>
+        <v>7.63695464985799E-4</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="1">
-        <v>5.3163211057947904E-4</v>
+        <v>9.8425196850393699E-4</v>
       </c>
       <c r="D31" s="1">
-        <v>1.0632642211589501E-3</v>
+        <v>9.8425196850393699E-4</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>9.8425196850393699E-4</v>
       </c>
       <c r="F31" s="1">
-        <v>3.7214247740563499E-3</v>
+        <v>2.9527559055118101E-3</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>8.4159547636252104E-4</v>
+        <v>1.0413521318684701E-3</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="1">
-        <v>4.8780487804877997E-3</v>
+        <v>9.7560975609756097E-4</v>
       </c>
       <c r="D32" s="1">
-        <v>4.8780487804877997E-3</v>
+        <v>9.7560975609756097E-4</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>9.7560975609756097E-4</v>
       </c>
       <c r="F32" s="1">
-        <v>2.92682926829268E-2</v>
+        <v>1.95121951219512E-3</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>5.3753255979161699E-3</v>
+        <v>9.8702039651975509E-4</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="1">
-        <v>1.0188487009679E-3</v>
+        <v>5.3163211057947904E-4</v>
       </c>
       <c r="D33" s="1">
-        <v>1.0188487009679E-3</v>
+        <v>1.0632642211589501E-3</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>1.0632642211589501E-3</v>
       </c>
       <c r="F33" s="1">
-        <v>3.0565461029037101E-3</v>
+        <v>3.7214247740563499E-3</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>1.25096302413846E-3</v>
+        <v>8.4159547636252104E-4</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="1">
-        <v>9.99000999000999E-4</v>
+        <v>4.8780487804877997E-3</v>
       </c>
       <c r="D34" s="1">
-        <v>1.1238761238761201E-3</v>
+        <v>4.8780487804877997E-3</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>4.8780487804877997E-3</v>
       </c>
       <c r="F34" s="1">
-        <v>3.05944055944055E-3</v>
+        <v>2.92682926829268E-2</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>1.2348532764337599E-3</v>
+        <v>5.3753255979161699E-3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="1">
-        <v>9.3109869646182495E-4</v>
+        <v>1.0188487009679E-3</v>
       </c>
       <c r="D35" s="1">
-        <v>9.3109869646182495E-4</v>
+        <v>1.0188487009679E-3</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>1.5282730514518501E-3</v>
       </c>
       <c r="F35" s="1">
-        <v>6.5176908752327704E-3</v>
+        <v>3.0565461029037101E-3</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>1.1069247758867E-3</v>
+        <v>1.25096302413846E-3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>9.99000999000999E-4</v>
       </c>
       <c r="D36" s="1">
-        <v>1E-3</v>
+        <v>1.1238761238761201E-3</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>1.49850149850149E-3</v>
       </c>
       <c r="F36" s="1">
-        <v>3.0625000000000001E-3</v>
+        <v>3.05944055944055E-3</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>8.5898717308012604E-4</v>
+        <v>1.2348532764337599E-3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="1">
-        <v>5.3248136315228896E-4</v>
+        <v>9.3109869646182495E-4</v>
       </c>
       <c r="D37" s="1">
-        <v>5.3248136315228896E-4</v>
+        <v>9.3109869646182495E-4</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>9.3109869646182495E-4</v>
       </c>
       <c r="F37" s="1">
-        <v>3.78653413797183E-3</v>
+        <v>6.5176908752327704E-3</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>7.0052109556332305E-4</v>
+        <v>1.1069247758867E-3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="1">
-        <v>9.8911968348170103E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D38" s="1">
-        <v>9.8911968348170103E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F38" s="1">
-        <v>3.6417588346371699E-3</v>
+        <v>3.0625000000000001E-3</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>1.18184089516731E-3</v>
+        <v>8.5898717308012604E-4</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="1">
-        <v>9.7087378640776695E-4</v>
+        <v>5.3248136315228896E-4</v>
       </c>
       <c r="D39" s="1">
-        <v>9.7087378640776695E-4</v>
+        <v>5.3248136315228896E-4</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>5.3248136315228896E-4</v>
       </c>
       <c r="F39" s="1">
-        <v>3.5745807590467698E-3</v>
+        <v>3.78653413797183E-3</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>1.0012983872525101E-3</v>
+        <v>7.0052109556332305E-4</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="1">
-        <v>6.2893081761006199E-4</v>
+        <v>9.8911968348170103E-4</v>
       </c>
       <c r="D40" s="1">
-        <v>6.2893081761006199E-4</v>
+        <v>9.8911968348170103E-4</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>1.48367952522255E-3</v>
       </c>
       <c r="F40" s="1">
-        <v>4.4723969252271102E-3</v>
+        <v>3.6417588346371699E-3</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>7.7528713443588305E-4</v>
+        <v>1.18184089516731E-3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>9.7087378640776695E-4</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>9.7087378640776695E-4</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>9.7087378640776695E-4</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>3.5745807590467698E-3</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>1.0012983872525101E-3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2000</v>
+        <v>2019</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>6.2893081761006199E-4</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>6.2893081761006199E-4</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>6.2893081761006199E-4</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>4.4723969252271102E-3</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>0</v>
+        <v>7.7528713443588305E-4</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2001</v>
+        <v>2020</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -2055,7 +2051,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
@@ -2081,7 +2077,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
@@ -2107,7 +2103,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
@@ -2133,7 +2129,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -2159,7 +2155,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -2185,7 +2181,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -2211,7 +2207,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
@@ -2237,7 +2233,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
@@ -2263,7 +2259,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
@@ -2289,7 +2285,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
@@ -2315,7 +2311,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
@@ -2341,7 +2337,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
@@ -2367,7 +2363,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -2393,7 +2389,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
@@ -2419,7 +2415,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
@@ -2445,7 +2441,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
@@ -2471,7 +2467,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
@@ -2497,7 +2493,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
@@ -2523,1154 +2519,1154 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1">
-        <v>6.43915003219575E-4</v>
+        <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>6.43915003219575E-4</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>0.54732775273663803</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>6.43915003219575E-4</v>
+        <v>0</v>
       </c>
       <c r="H62" s="1">
-        <v>1.8521879436238699E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C63" s="1">
-        <v>6.3011972274732201E-4</v>
+        <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>6.3011972274732201E-4</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>0.55198487712665401</v>
+        <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>6.3011972274732201E-4</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1">
-        <v>1.82131582330617E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2002</v>
+        <v>2020</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C64" s="1">
-        <v>1.22850122850122E-3</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>1.22850122850122E-3</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>0.95638820638820599</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1">
-        <v>6.1425061425061402E-4</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1">
-        <v>2.4125079373698102E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
       </c>
       <c r="C65" s="1">
-        <v>1.19904076738609E-3</v>
+        <v>6.43915003219575E-4</v>
       </c>
       <c r="D65" s="1">
-        <v>1.19904076738609E-3</v>
+        <v>6.43915003219575E-4</v>
       </c>
       <c r="E65" s="1">
-        <v>0</v>
+        <v>1.28783000643915E-3</v>
       </c>
       <c r="F65" s="1">
-        <v>0.87170263788968805</v>
+        <v>0.54732775273663803</v>
       </c>
       <c r="G65" s="1">
-        <v>5.9952038369304498E-4</v>
+        <v>6.43915003219575E-4</v>
       </c>
       <c r="H65" s="1">
-        <v>2.2357189143831701E-3</v>
+        <v>1.8521879436238699E-3</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="1">
-        <v>1.1655011655011601E-3</v>
+        <v>6.3011972274732201E-4</v>
       </c>
       <c r="D66" s="1">
-        <v>1.1655011655011601E-3</v>
+        <v>6.3011972274732201E-4</v>
       </c>
       <c r="E66" s="1">
-        <v>0</v>
+        <v>1.2602394454946399E-3</v>
       </c>
       <c r="F66" s="1">
-        <v>0.96386946386946304</v>
+        <v>0.55198487712665401</v>
       </c>
       <c r="G66" s="1">
-        <v>5.8275058275058199E-4</v>
+        <v>6.3011972274732201E-4</v>
       </c>
       <c r="H66" s="1">
-        <v>2.6561479677379499E-3</v>
+        <v>1.82131582330617E-3</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="1">
-        <v>1.3157894736842101E-3</v>
+        <v>1.22850122850122E-3</v>
       </c>
       <c r="D67" s="1">
-        <v>1.3157894736842101E-3</v>
+        <v>1.22850122850122E-3</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>1.22850122850122E-3</v>
       </c>
       <c r="F67" s="1">
-        <v>1.0026315789473601</v>
+        <v>0.95638820638820599</v>
       </c>
       <c r="G67" s="1">
-        <v>1.3157894736842101E-3</v>
+        <v>6.1425061425061402E-4</v>
       </c>
       <c r="H67" s="1">
-        <v>2.6315789473684201E-3</v>
+        <v>2.4125079373698102E-3</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
       </c>
       <c r="C68" s="1">
-        <v>1.30718954248366E-3</v>
+        <v>1.19904076738609E-3</v>
       </c>
       <c r="D68" s="1">
-        <v>1.30718954248366E-3</v>
+        <v>1.19904076738609E-3</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
+        <v>1.19904076738609E-3</v>
       </c>
       <c r="F68" s="1">
-        <v>1.00261437908496</v>
+        <v>0.87170263788968805</v>
       </c>
       <c r="G68" s="1">
-        <v>1.30718954248366E-3</v>
+        <v>5.9952038369304498E-4</v>
       </c>
       <c r="H68" s="1">
-        <v>2.9761600027304199E-3</v>
+        <v>2.2357189143831701E-3</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="1">
-        <v>5.6211354693648096E-4</v>
+        <v>1.1655011655011601E-3</v>
       </c>
       <c r="D69" s="1">
-        <v>5.6211354693648096E-4</v>
+        <v>1.1655011655011601E-3</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>1.74825174825174E-3</v>
       </c>
       <c r="F69" s="1">
-        <v>0.92804946599213001</v>
+        <v>0.96386946386946304</v>
       </c>
       <c r="G69" s="1">
-        <v>5.6211354693648096E-4</v>
+        <v>5.8275058275058199E-4</v>
       </c>
       <c r="H69" s="1">
-        <v>1.5240224592783401E-3</v>
+        <v>2.6561479677379499E-3</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
       </c>
       <c r="C70" s="1">
-        <v>9.7560975609756097E-4</v>
+        <v>1.3157894736842101E-3</v>
       </c>
       <c r="D70" s="1">
-        <v>9.7560975609756097E-4</v>
+        <v>1.3157894736842101E-3</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>1.3157894736842101E-3</v>
       </c>
       <c r="F70" s="1">
-        <v>0.65073170731707297</v>
+        <v>1.0026315789473601</v>
       </c>
       <c r="G70" s="1">
-        <v>9.7560975609756097E-4</v>
+        <v>1.3157894736842101E-3</v>
       </c>
       <c r="H70" s="1">
-        <v>1.9816478866542999E-3</v>
+        <v>2.6315789473684201E-3</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="1">
-        <v>5.3163211057947904E-4</v>
+        <v>1.30718954248366E-3</v>
       </c>
       <c r="D71" s="1">
-        <v>1.0632642211589501E-3</v>
+        <v>1.30718954248366E-3</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>1.30718954248366E-3</v>
       </c>
       <c r="F71" s="1">
-        <v>0.88410419989367295</v>
+        <v>1.00261437908496</v>
       </c>
       <c r="G71" s="1">
-        <v>5.3163211057947904E-4</v>
+        <v>1.30718954248366E-3</v>
       </c>
       <c r="H71" s="1">
-        <v>1.67568633366496E-3</v>
+        <v>2.9761600027304199E-3</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="1">
-        <v>4.8780487804877997E-3</v>
+        <v>5.6211354693648096E-4</v>
       </c>
       <c r="D72" s="1">
-        <v>4.8780487804877997E-3</v>
+        <v>5.6211354693648096E-4</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>1.12422709387296E-3</v>
       </c>
       <c r="F72" s="1">
-        <v>0.52195121951219503</v>
+        <v>0.92804946599213001</v>
       </c>
       <c r="G72" s="1">
-        <v>4.8780487804877997E-3</v>
+        <v>5.6211354693648096E-4</v>
       </c>
       <c r="H72" s="1">
-        <v>1.0892730286526099E-2</v>
+        <v>1.5240224592783401E-3</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="C73" s="1">
-        <v>1.0188487009679E-3</v>
+        <v>9.8425196850393699E-4</v>
       </c>
       <c r="D73" s="1">
-        <v>1.0188487009679E-3</v>
+        <v>9.8425196850393699E-4</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>9.8425196850393699E-4</v>
       </c>
       <c r="F73" s="1">
-        <v>0.89811512990320896</v>
+        <v>0.65649606299212504</v>
       </c>
       <c r="G73" s="1">
-        <v>5.0942435048395302E-4</v>
+        <v>9.8425196850393699E-4</v>
       </c>
       <c r="H73" s="1">
-        <v>2.4890204008370699E-3</v>
+        <v>2.0885110600113001E-3</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
       <c r="C74" s="1">
-        <v>9.99000999000999E-4</v>
+        <v>9.7560975609756097E-4</v>
       </c>
       <c r="D74" s="1">
-        <v>9.99000999000999E-4</v>
+        <v>9.7560975609756097E-4</v>
       </c>
       <c r="E74" s="1">
-        <v>0</v>
+        <v>9.7560975609756097E-4</v>
       </c>
       <c r="F74" s="1">
-        <v>0.82867132867132798</v>
+        <v>0.65073170731707297</v>
       </c>
       <c r="G74" s="1">
-        <v>4.9950049950049896E-4</v>
+        <v>9.7560975609756097E-4</v>
       </c>
       <c r="H74" s="1">
-        <v>2.4369040844327899E-3</v>
+        <v>1.9816478866542999E-3</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
       </c>
       <c r="C75" s="1">
-        <v>9.3109869646182495E-4</v>
+        <v>5.3163211057947904E-4</v>
       </c>
       <c r="D75" s="1">
-        <v>9.3109869646182495E-4</v>
+        <v>1.0632642211589501E-3</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>1.0632642211589501E-3</v>
       </c>
       <c r="F75" s="1">
-        <v>0.78677839851024201</v>
+        <v>0.88410419989367295</v>
       </c>
       <c r="G75" s="1">
-        <v>9.3109869646182495E-4</v>
+        <v>5.3163211057947904E-4</v>
       </c>
       <c r="H75" s="1">
-        <v>2.2173141050625699E-3</v>
+        <v>1.67568633366496E-3</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
       </c>
       <c r="C76" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>4.8780487804877997E-3</v>
       </c>
       <c r="D76" s="1">
-        <v>1E-3</v>
+        <v>4.8780487804877997E-3</v>
       </c>
       <c r="E76" s="1">
-        <v>0</v>
+        <v>4.8780487804877997E-3</v>
       </c>
       <c r="F76" s="1">
-        <v>0.91500000000000004</v>
+        <v>0.52195121951219503</v>
       </c>
       <c r="G76" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>4.8780487804877997E-3</v>
       </c>
       <c r="H76" s="1">
-        <v>1.7071464267866001E-3</v>
+        <v>1.0892730286526099E-2</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
       </c>
       <c r="C77" s="1">
-        <v>5.3248136315228896E-4</v>
+        <v>1.0188487009679E-3</v>
       </c>
       <c r="D77" s="1">
-        <v>5.3248136315228896E-4</v>
+        <v>1.0188487009679E-3</v>
       </c>
       <c r="E77" s="1">
-        <v>0</v>
+        <v>1.5282730514518501E-3</v>
       </c>
       <c r="F77" s="1">
-        <v>0.457933972310969</v>
+        <v>0.89811512990320896</v>
       </c>
       <c r="G77" s="1">
-        <v>5.3248136315228896E-4</v>
+        <v>5.0942435048395302E-4</v>
       </c>
       <c r="H77" s="1">
-        <v>1.40332501880262E-3</v>
+        <v>2.4890204008370699E-3</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="1">
-        <v>9.8911968348170103E-4</v>
+        <v>9.99000999000999E-4</v>
       </c>
       <c r="D78" s="1">
-        <v>9.8911968348170103E-4</v>
+        <v>9.99000999000999E-4</v>
       </c>
       <c r="E78" s="1">
-        <v>0</v>
+        <v>1.49850149850149E-3</v>
       </c>
       <c r="F78" s="1">
-        <v>0.82294757665677498</v>
+        <v>0.82867132867132798</v>
       </c>
       <c r="G78" s="1">
-        <v>4.9455984174084997E-4</v>
+        <v>4.9950049950049896E-4</v>
       </c>
       <c r="H78" s="1">
-        <v>2.33858598422786E-3</v>
+        <v>2.4369040844327899E-3</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B79" t="s">
         <v>14</v>
       </c>
       <c r="C79" s="1">
-        <v>9.7087378640776695E-4</v>
+        <v>9.3109869646182495E-4</v>
       </c>
       <c r="D79" s="1">
-        <v>9.7087378640776695E-4</v>
+        <v>9.3109869646182495E-4</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>9.3109869646182495E-4</v>
       </c>
       <c r="F79" s="1">
-        <v>0.72184466019417404</v>
+        <v>0.78677839851024201</v>
       </c>
       <c r="G79" s="1">
-        <v>4.8543689320388299E-4</v>
+        <v>9.3109869646182495E-4</v>
       </c>
       <c r="H79" s="1">
-        <v>1.9756645609869802E-3</v>
+        <v>2.2173141050625699E-3</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
       </c>
       <c r="C80" s="1">
-        <v>6.2893081761006199E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D80" s="1">
-        <v>6.2893081761006199E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="E80" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F80" s="1">
-        <v>0.46540880503144599</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="G80" s="1">
-        <v>6.2893081761006199E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H80" s="1">
-        <v>1.5575030932643899E-3</v>
+        <v>1.7071464267866001E-3</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
       </c>
       <c r="C81" s="1">
-        <v>0</v>
+        <v>5.3248136315228896E-4</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>5.3248136315228896E-4</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>5.3248136315228896E-4</v>
       </c>
       <c r="F81" s="1">
-        <v>0</v>
+        <v>0.457933972310969</v>
       </c>
       <c r="G81" s="1">
-        <v>0</v>
+        <v>5.3248136315228896E-4</v>
       </c>
       <c r="H81" s="1">
-        <v>0</v>
+        <v>1.40332501880262E-3</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C82" s="1">
-        <v>6.43915003219575E-4</v>
+        <v>9.8911968348170103E-4</v>
       </c>
       <c r="D82" s="1">
-        <v>6.43915003219575E-4</v>
+        <v>9.8911968348170103E-4</v>
       </c>
       <c r="E82" s="1">
-        <v>0</v>
+        <v>1.48367952522255E-3</v>
       </c>
       <c r="F82" s="1">
-        <v>1.28783000643915E-3</v>
+        <v>0.82294757665677498</v>
       </c>
       <c r="G82" s="1">
-        <v>0</v>
+        <v>4.9455984174084997E-4</v>
       </c>
       <c r="H82" s="1">
-        <v>9.2609397181193595E-4</v>
+        <v>2.33858598422786E-3</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C83" s="1">
-        <v>6.3011972274732201E-4</v>
+        <v>9.7087378640776695E-4</v>
       </c>
       <c r="D83" s="1">
-        <v>6.3011972274732201E-4</v>
+        <v>9.7087378640776695E-4</v>
       </c>
       <c r="E83" s="1">
-        <v>0</v>
+        <v>9.7087378640776695E-4</v>
       </c>
       <c r="F83" s="1">
-        <v>1.2602394454946399E-3</v>
+        <v>0.72184466019417404</v>
       </c>
       <c r="G83" s="1">
-        <v>0</v>
+        <v>4.8543689320388299E-4</v>
       </c>
       <c r="H83" s="1">
-        <v>9.1065791165308803E-4</v>
+        <v>1.9756645609869802E-3</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>2002</v>
+        <v>2019</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C84" s="1">
-        <v>1.22850122850122E-3</v>
+        <v>6.2893081761006199E-4</v>
       </c>
       <c r="D84" s="1">
-        <v>1.22850122850122E-3</v>
+        <v>6.2893081761006199E-4</v>
       </c>
       <c r="E84" s="1">
-        <v>0</v>
+        <v>6.2893081761006199E-4</v>
       </c>
       <c r="F84" s="1">
-        <v>2.45700245700245E-3</v>
+        <v>0.46540880503144599</v>
       </c>
       <c r="G84" s="1">
-        <v>0</v>
+        <v>6.2893081761006199E-4</v>
       </c>
       <c r="H84" s="1">
-        <v>1.2062539686849001E-3</v>
+        <v>1.5575030932643899E-3</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>2003</v>
+        <v>2020</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1">
-        <v>1.19904076738609E-3</v>
+        <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>1.19904076738609E-3</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1">
         <v>0</v>
       </c>
       <c r="F85" s="1">
-        <v>1.19904076738609E-3</v>
+        <v>0</v>
       </c>
       <c r="G85" s="1">
         <v>0</v>
       </c>
       <c r="H85" s="1">
-        <v>1.1178594571915801E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B86" t="s">
         <v>13</v>
       </c>
       <c r="C86" s="1">
-        <v>1.1655011655011601E-3</v>
+        <v>6.43915003219575E-4</v>
       </c>
       <c r="D86" s="1">
-        <v>1.1655011655011601E-3</v>
+        <v>6.43915003219575E-4</v>
       </c>
       <c r="E86" s="1">
-        <v>0</v>
+        <v>1.28783000643915E-3</v>
       </c>
       <c r="F86" s="1">
-        <v>1.74825174825174E-3</v>
+        <v>1.28783000643915E-3</v>
       </c>
       <c r="G86" s="1">
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <v>1.3280739838689699E-3</v>
+        <v>9.2609397181193595E-4</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="B87" t="s">
         <v>13</v>
       </c>
       <c r="C87" s="1">
-        <v>1.3157894736842101E-3</v>
+        <v>6.3011972274732201E-4</v>
       </c>
       <c r="D87" s="1">
-        <v>1.3157894736842101E-3</v>
+        <v>6.3011972274732201E-4</v>
       </c>
       <c r="E87" s="1">
-        <v>0</v>
+        <v>1.2602394454946399E-3</v>
       </c>
       <c r="F87" s="1">
-        <v>1.3157894736842101E-3</v>
+        <v>1.2602394454946399E-3</v>
       </c>
       <c r="G87" s="1">
-        <v>1.3157894736842101E-3</v>
+        <v>0</v>
       </c>
       <c r="H87" s="1">
-        <v>1.3157894736842101E-3</v>
+        <v>9.1065791165308803E-4</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B88" t="s">
         <v>13</v>
       </c>
       <c r="C88" s="1">
-        <v>1.30718954248366E-3</v>
+        <v>1.22850122850122E-3</v>
       </c>
       <c r="D88" s="1">
-        <v>1.30718954248366E-3</v>
+        <v>1.22850122850122E-3</v>
       </c>
       <c r="E88" s="1">
-        <v>0</v>
+        <v>1.22850122850122E-3</v>
       </c>
       <c r="F88" s="1">
-        <v>2.6143790849673201E-3</v>
+        <v>2.45700245700245E-3</v>
       </c>
       <c r="G88" s="1">
-        <v>1.30718954248366E-3</v>
+        <v>0</v>
       </c>
       <c r="H88" s="1">
-        <v>1.4880800013652099E-3</v>
+        <v>1.2062539686849001E-3</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B89" t="s">
         <v>13</v>
       </c>
       <c r="C89" s="1">
-        <v>5.6211354693648096E-4</v>
+        <v>1.19904076738609E-3</v>
       </c>
       <c r="D89" s="1">
-        <v>5.6211354693648096E-4</v>
+        <v>1.19904076738609E-3</v>
       </c>
       <c r="E89" s="1">
-        <v>0</v>
+        <v>1.19904076738609E-3</v>
       </c>
       <c r="F89" s="1">
-        <v>1.12422709387296E-3</v>
+        <v>1.19904076738609E-3</v>
       </c>
       <c r="G89" s="1">
         <v>0</v>
       </c>
       <c r="H89" s="1">
-        <v>7.6201122963917296E-4</v>
+        <v>1.1178594571915801E-3</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
       </c>
       <c r="C90" s="1">
-        <v>9.7560975609756097E-4</v>
+        <v>1.1655011655011601E-3</v>
       </c>
       <c r="D90" s="1">
-        <v>9.7560975609756097E-4</v>
+        <v>1.1655011655011601E-3</v>
       </c>
       <c r="E90" s="1">
-        <v>0</v>
+        <v>1.74825174825174E-3</v>
       </c>
       <c r="F90" s="1">
-        <v>1.95121951219512E-3</v>
+        <v>1.74825174825174E-3</v>
       </c>
       <c r="G90" s="1">
         <v>0</v>
       </c>
       <c r="H90" s="1">
-        <v>9.9082394332715299E-4</v>
+        <v>1.3280739838689699E-3</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B91" t="s">
         <v>13</v>
       </c>
       <c r="C91" s="1">
-        <v>5.3163211057947904E-4</v>
+        <v>1.3157894736842101E-3</v>
       </c>
       <c r="D91" s="1">
-        <v>1.0632642211589501E-3</v>
+        <v>1.3157894736842101E-3</v>
       </c>
       <c r="E91" s="1">
-        <v>0</v>
+        <v>1.3157894736842101E-3</v>
       </c>
       <c r="F91" s="1">
-        <v>3.7214247740563499E-3</v>
+        <v>1.3157894736842101E-3</v>
       </c>
       <c r="G91" s="1">
-        <v>0</v>
+        <v>1.3157894736842101E-3</v>
       </c>
       <c r="H91" s="1">
-        <v>8.3784316683248403E-4</v>
+        <v>1.3157894736842101E-3</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B92" t="s">
         <v>13</v>
       </c>
       <c r="C92" s="1">
-        <v>4.8780487804877997E-3</v>
+        <v>1.30718954248366E-3</v>
       </c>
       <c r="D92" s="1">
-        <v>4.8780487804877997E-3</v>
+        <v>1.30718954248366E-3</v>
       </c>
       <c r="E92" s="1">
-        <v>0</v>
+        <v>1.30718954248366E-3</v>
       </c>
       <c r="F92" s="1">
-        <v>2.92682926829268E-2</v>
+        <v>2.6143790849673201E-3</v>
       </c>
       <c r="G92" s="1">
-        <v>0</v>
+        <v>1.30718954248366E-3</v>
       </c>
       <c r="H92" s="1">
-        <v>5.4463651432630801E-3</v>
+        <v>1.4880800013652099E-3</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B93" t="s">
         <v>13</v>
       </c>
       <c r="C93" s="1">
-        <v>1.0188487009679E-3</v>
+        <v>5.6211354693648096E-4</v>
       </c>
       <c r="D93" s="1">
-        <v>1.0188487009679E-3</v>
+        <v>5.6211354693648096E-4</v>
       </c>
       <c r="E93" s="1">
-        <v>0</v>
+        <v>1.12422709387296E-3</v>
       </c>
       <c r="F93" s="1">
-        <v>3.0565461029037101E-3</v>
+        <v>1.12422709387296E-3</v>
       </c>
       <c r="G93" s="1">
         <v>0</v>
       </c>
       <c r="H93" s="1">
-        <v>1.24451020041853E-3</v>
+        <v>7.6201122963917296E-4</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
       </c>
       <c r="C94" s="1">
-        <v>9.99000999000999E-4</v>
+        <v>9.8425196850393699E-4</v>
       </c>
       <c r="D94" s="1">
-        <v>9.99000999000999E-4</v>
+        <v>9.8425196850393699E-4</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
+        <v>9.8425196850393699E-4</v>
       </c>
       <c r="F94" s="1">
-        <v>2.9970029970029901E-3</v>
+        <v>2.9527559055118101E-3</v>
       </c>
       <c r="G94" s="1">
         <v>0</v>
       </c>
       <c r="H94" s="1">
-        <v>1.21845204221639E-3</v>
+        <v>1.0442555300056501E-3</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
       </c>
       <c r="C95" s="1">
-        <v>9.3109869646182495E-4</v>
+        <v>9.7560975609756097E-4</v>
       </c>
       <c r="D95" s="1">
-        <v>9.3109869646182495E-4</v>
+        <v>9.7560975609756097E-4</v>
       </c>
       <c r="E95" s="1">
-        <v>0</v>
+        <v>9.7560975609756097E-4</v>
       </c>
       <c r="F95" s="1">
-        <v>6.5176908752327704E-3</v>
+        <v>1.95121951219512E-3</v>
       </c>
       <c r="G95" s="1">
         <v>0</v>
       </c>
       <c r="H95" s="1">
-        <v>1.10865705253128E-3</v>
+        <v>9.9082394332715299E-4</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
       </c>
       <c r="C96" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>5.3163211057947904E-4</v>
       </c>
       <c r="D96" s="1">
-        <v>1E-3</v>
+        <v>1.0632642211589501E-3</v>
       </c>
       <c r="E96" s="1">
-        <v>0</v>
+        <v>1.0632642211589501E-3</v>
       </c>
       <c r="F96" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.7214247740563499E-3</v>
       </c>
       <c r="G96" s="1">
         <v>0</v>
       </c>
       <c r="H96" s="1">
-        <v>8.5357321339330297E-4</v>
+        <v>8.3784316683248403E-4</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B97" t="s">
         <v>13</v>
       </c>
       <c r="C97" s="1">
-        <v>5.3248136315228896E-4</v>
+        <v>4.8780487804877997E-3</v>
       </c>
       <c r="D97" s="1">
-        <v>5.3248136315228896E-4</v>
+        <v>4.8780487804877997E-3</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>4.8780487804877997E-3</v>
       </c>
       <c r="F97" s="1">
-        <v>3.72736954206602E-3</v>
+        <v>2.92682926829268E-2</v>
       </c>
       <c r="G97" s="1">
         <v>0</v>
       </c>
       <c r="H97" s="1">
-        <v>7.0166250940131402E-4</v>
+        <v>5.4463651432630801E-3</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B98" t="s">
         <v>13</v>
       </c>
       <c r="C98" s="1">
-        <v>9.8911968348170103E-4</v>
+        <v>1.0188487009679E-3</v>
       </c>
       <c r="D98" s="1">
-        <v>9.8911968348170103E-4</v>
+        <v>1.0188487009679E-3</v>
       </c>
       <c r="E98" s="1">
-        <v>0</v>
+        <v>1.5282730514518501E-3</v>
       </c>
       <c r="F98" s="1">
-        <v>3.9564787339267998E-3</v>
+        <v>3.0565461029037101E-3</v>
       </c>
       <c r="G98" s="1">
         <v>0</v>
       </c>
       <c r="H98" s="1">
-        <v>1.16929299211393E-3</v>
+        <v>1.24451020041853E-3</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B99" t="s">
         <v>13</v>
       </c>
       <c r="C99" s="1">
-        <v>9.7087378640776695E-4</v>
+        <v>9.99000999000999E-4</v>
       </c>
       <c r="D99" s="1">
-        <v>9.7087378640776695E-4</v>
+        <v>9.99000999000999E-4</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>1.49850149850149E-3</v>
       </c>
       <c r="F99" s="1">
-        <v>3.88349514563106E-3</v>
+        <v>2.9970029970029901E-3</v>
       </c>
       <c r="G99" s="1">
         <v>0</v>
       </c>
       <c r="H99" s="1">
-        <v>9.8783228049349205E-4</v>
+        <v>1.21845204221639E-3</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B100" t="s">
         <v>13</v>
       </c>
       <c r="C100" s="1">
-        <v>6.2893081761006199E-4</v>
+        <v>9.3109869646182495E-4</v>
       </c>
       <c r="D100" s="1">
-        <v>6.2893081761006199E-4</v>
+        <v>9.3109869646182495E-4</v>
       </c>
       <c r="E100" s="1">
-        <v>0</v>
+        <v>9.3109869646182495E-4</v>
       </c>
       <c r="F100" s="1">
-        <v>4.4025157232704401E-3</v>
+        <v>6.5176908752327704E-3</v>
       </c>
       <c r="G100" s="1">
         <v>0</v>
       </c>
       <c r="H100" s="1">
-        <v>7.7875154663219605E-4</v>
+        <v>1.10865705253128E-3</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B101" t="s">
         <v>13</v>
       </c>
       <c r="C101" s="1">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E101" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F101" s="1">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G101" s="1">
         <v>0</v>
       </c>
       <c r="H101" s="1">
-        <v>0</v>
+        <v>8.5357321339330297E-4</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C102" s="1">
-        <v>0</v>
+        <v>5.3248136315228896E-4</v>
       </c>
       <c r="D102" s="1">
-        <v>0</v>
+        <v>5.3248136315228896E-4</v>
       </c>
       <c r="E102" s="1">
-        <v>0</v>
+        <v>5.3248136315228896E-4</v>
       </c>
       <c r="F102" s="1">
-        <v>3.3191495011318301E-6</v>
+        <v>3.72736954206602E-3</v>
       </c>
       <c r="G102" s="1">
         <v>0</v>
       </c>
       <c r="H102" s="1">
-        <v>2.1358748398531701E-9</v>
+        <v>7.0166250940131402E-4</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C103" s="1">
-        <v>0</v>
+        <v>9.8911968348170103E-4</v>
       </c>
       <c r="D103" s="1">
-        <v>0</v>
+        <v>9.8911968348170103E-4</v>
       </c>
       <c r="E103" s="1">
-        <v>0</v>
+        <v>1.48367952522255E-3</v>
       </c>
       <c r="F103" s="1">
-        <v>3.1784096985993501E-6</v>
+        <v>3.9564787339267998E-3</v>
       </c>
       <c r="G103" s="1">
         <v>0</v>
       </c>
       <c r="H103" s="1">
-        <v>2.0015174424429101E-9</v>
+        <v>1.16929299211393E-3</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>2002</v>
+        <v>2018</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C104" s="1">
-        <v>0</v>
+        <v>9.7087378640776695E-4</v>
       </c>
       <c r="D104" s="1">
-        <v>0</v>
+        <v>9.7087378640776695E-4</v>
       </c>
       <c r="E104" s="1">
-        <v>0</v>
+        <v>9.7087378640776695E-4</v>
       </c>
       <c r="F104" s="1">
-        <v>1.5541887084603699E-5</v>
+        <v>3.88349514563106E-3</v>
       </c>
       <c r="G104" s="1">
         <v>0</v>
       </c>
       <c r="H104" s="1">
-        <v>1.5296106464816798E-8</v>
+        <v>9.8783228049349205E-4</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>2003</v>
+        <v>2019</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C105" s="1">
-        <v>0</v>
+        <v>6.2893081761006199E-4</v>
       </c>
       <c r="D105" s="1">
-        <v>0</v>
+        <v>6.2893081761006199E-4</v>
       </c>
       <c r="E105" s="1">
-        <v>0</v>
+        <v>6.2893081761006199E-4</v>
       </c>
       <c r="F105" s="1">
-        <v>2.6217778027128302E-4</v>
+        <v>4.4025157232704401E-3</v>
       </c>
       <c r="G105" s="1">
         <v>0</v>
       </c>
       <c r="H105" s="1">
-        <v>1.7432534718017699E-7</v>
+        <v>7.7875154663219605E-4</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>2004</v>
+        <v>2020</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C106" s="1">
         <v>0</v>
@@ -3682,18 +3678,18 @@
         <v>0</v>
       </c>
       <c r="F106" s="1">
-        <v>2.2426553038797901E-5</v>
+        <v>0</v>
       </c>
       <c r="G106" s="1">
         <v>0</v>
       </c>
       <c r="H106" s="1">
-        <v>1.7415300360161401E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="B107" t="s">
         <v>12</v>
@@ -3708,18 +3704,18 @@
         <v>0</v>
       </c>
       <c r="F107" s="1">
-        <v>0</v>
+        <v>3.3191495011318301E-6</v>
       </c>
       <c r="G107" s="1">
         <v>0</v>
       </c>
       <c r="H107" s="1">
-        <v>0</v>
+        <v>2.1358748398531701E-9</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B108" t="s">
         <v>12</v>
@@ -3734,18 +3730,18 @@
         <v>0</v>
       </c>
       <c r="F108" s="1">
-        <v>0</v>
+        <v>3.1784096985993501E-6</v>
       </c>
       <c r="G108" s="1">
         <v>0</v>
       </c>
       <c r="H108" s="1">
-        <v>0</v>
+        <v>2.0015174424429101E-9</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="B109" t="s">
         <v>12</v>
@@ -3760,18 +3756,18 @@
         <v>0</v>
       </c>
       <c r="F109" s="1">
-        <v>6.9552857326223698E-6</v>
+        <v>1.5541887084603699E-5</v>
       </c>
       <c r="G109" s="1">
         <v>0</v>
       </c>
       <c r="H109" s="1">
-        <v>3.9074638947316698E-9</v>
+        <v>1.5296106464816798E-8</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="B110" t="s">
         <v>12</v>
@@ -3786,18 +3782,18 @@
         <v>0</v>
       </c>
       <c r="F110" s="1">
-        <v>0</v>
+        <v>2.6217778027128302E-4</v>
       </c>
       <c r="G110" s="1">
         <v>0</v>
       </c>
       <c r="H110" s="1">
-        <v>0</v>
+        <v>1.7432534718017699E-7</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="B111" t="s">
         <v>12</v>
@@ -3812,18 +3808,18 @@
         <v>0</v>
       </c>
       <c r="F111" s="1">
-        <v>1.5977241621138499E-5</v>
+        <v>2.2426553038797901E-5</v>
       </c>
       <c r="G111" s="1">
         <v>0</v>
       </c>
       <c r="H111" s="1">
-        <v>9.3159130327423506E-9</v>
+        <v>1.7415300360161401E-8</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="B112" t="s">
         <v>12</v>
@@ -3849,7 +3845,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="B113" t="s">
         <v>12</v>
@@ -3864,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F113" s="1">
-        <v>1.7396244384518201E-5</v>
+        <v>0</v>
       </c>
       <c r="G113" s="1">
         <v>0</v>
       </c>
       <c r="H113" s="1">
-        <v>1.5203271606982401E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="B114" t="s">
         <v>12</v>
@@ -3890,18 +3886,18 @@
         <v>0</v>
       </c>
       <c r="F114" s="1">
-        <v>4.8926585658219802E-5</v>
+        <v>6.9552857326223698E-6</v>
       </c>
       <c r="G114" s="1">
         <v>0</v>
       </c>
       <c r="H114" s="1">
-        <v>3.5767598815829998E-8</v>
+        <v>3.9074638947316698E-9</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="B115" t="s">
         <v>12</v>
@@ -3927,7 +3923,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="B116" t="s">
         <v>12</v>
@@ -3942,18 +3938,18 @@
         <v>0</v>
       </c>
       <c r="F116" s="1">
-        <v>2.12606303151575E-5</v>
+        <v>0</v>
       </c>
       <c r="G116" s="1">
         <v>0</v>
       </c>
       <c r="H116" s="1">
-        <v>1.08750027187506E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="B117" t="s">
         <v>12</v>
@@ -3968,18 +3964,18 @@
         <v>0</v>
       </c>
       <c r="F117" s="1">
-        <v>1.98581222273096E-6</v>
+        <v>1.5977241621138499E-5</v>
       </c>
       <c r="G117" s="1">
         <v>0</v>
       </c>
       <c r="H117" s="1">
-        <v>1.3588010343327501E-9</v>
+        <v>9.3159130327423506E-9</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
@@ -3994,18 +3990,18 @@
         <v>0</v>
       </c>
       <c r="F118" s="1">
-        <v>3.6706569154442099E-5</v>
+        <v>0</v>
       </c>
       <c r="G118" s="1">
         <v>0</v>
       </c>
       <c r="H118" s="1">
-        <v>1.8628478002254299E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="B119" t="s">
         <v>12</v>
@@ -4020,18 +4016,18 @@
         <v>0</v>
       </c>
       <c r="F119" s="1">
-        <v>3.48929869811436E-5</v>
+        <v>1.7396244384518201E-5</v>
       </c>
       <c r="G119" s="1">
         <v>0</v>
       </c>
       <c r="H119" s="1">
-        <v>3.0085289140802701E-8</v>
+        <v>1.5203271606982401E-8</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="B120" t="s">
         <v>12</v>
@@ -4046,18 +4042,18 @@
         <v>0</v>
       </c>
       <c r="F120" s="1">
-        <v>7.9160581196987102E-7</v>
+        <v>4.8926585658219802E-5</v>
       </c>
       <c r="G120" s="1">
         <v>0</v>
       </c>
       <c r="H120" s="1">
-        <v>4.9755236453166005E-10</v>
+        <v>3.5767598815829998E-8</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -4083,10 +4079,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C122" s="1">
         <v>0</v>
@@ -4098,21 +4094,21 @@
         <v>0</v>
       </c>
       <c r="F122" s="1">
-        <v>0.54732775273663803</v>
+        <v>2.12606303151575E-5</v>
       </c>
       <c r="G122" s="1">
         <v>0</v>
       </c>
       <c r="H122" s="1">
-        <v>9.2609397181193703E-4</v>
+        <v>1.08750027187506E-8</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C123" s="1">
         <v>0</v>
@@ -4124,21 +4120,21 @@
         <v>0</v>
       </c>
       <c r="F123" s="1">
-        <v>0.55198487712665401</v>
+        <v>1.98581222273096E-6</v>
       </c>
       <c r="G123" s="1">
         <v>0</v>
       </c>
       <c r="H123" s="1">
-        <v>9.1065791165308803E-4</v>
+        <v>1.3588010343327501E-9</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C124" s="1">
         <v>0</v>
@@ -4150,21 +4146,21 @@
         <v>0</v>
       </c>
       <c r="F124" s="1">
-        <v>0.95638820638820599</v>
+        <v>3.6706569154442099E-5</v>
       </c>
       <c r="G124" s="1">
         <v>0</v>
       </c>
       <c r="H124" s="1">
-        <v>1.2062539686849001E-3</v>
+        <v>1.8628478002254299E-8</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C125" s="1">
         <v>0</v>
@@ -4176,21 +4172,21 @@
         <v>0</v>
       </c>
       <c r="F125" s="1">
-        <v>0.87050359712230196</v>
+        <v>3.48929869811436E-5</v>
       </c>
       <c r="G125" s="1">
         <v>0</v>
       </c>
       <c r="H125" s="1">
-        <v>1.1178594571915801E-3</v>
+        <v>3.0085289140802701E-8</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>2004</v>
+        <v>2019</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C126" s="1">
         <v>0</v>
@@ -4202,21 +4198,21 @@
         <v>0</v>
       </c>
       <c r="F126" s="1">
-        <v>0.96386946386946304</v>
+        <v>7.9160581196987102E-7</v>
       </c>
       <c r="G126" s="1">
         <v>0</v>
       </c>
       <c r="H126" s="1">
-        <v>1.3280739838689699E-3</v>
+        <v>4.9755236453166005E-10</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C127" s="1">
         <v>0</v>
@@ -4228,18 +4224,18 @@
         <v>0</v>
       </c>
       <c r="F127" s="1">
-        <v>1.0013157894736799</v>
+        <v>0</v>
       </c>
       <c r="G127" s="1">
         <v>0</v>
       </c>
       <c r="H127" s="1">
-        <v>1.3157894736842101E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
@@ -4254,18 +4250,18 @@
         <v>0</v>
       </c>
       <c r="F128" s="1">
-        <v>1.0013071895424801</v>
+        <v>0.54732775273663803</v>
       </c>
       <c r="G128" s="1">
         <v>0</v>
       </c>
       <c r="H128" s="1">
-        <v>1.4880800013652099E-3</v>
+        <v>9.2609397181193703E-4</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="B129" t="s">
         <v>15</v>
@@ -4280,18 +4276,18 @@
         <v>0</v>
       </c>
       <c r="F129" s="1">
-        <v>0.92804946599213001</v>
+        <v>0.55198487712665401</v>
       </c>
       <c r="G129" s="1">
         <v>0</v>
       </c>
       <c r="H129" s="1">
-        <v>7.6201122963917296E-4</v>
+        <v>9.1065791165308803E-4</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="B130" t="s">
         <v>15</v>
@@ -4306,18 +4302,18 @@
         <v>0</v>
       </c>
       <c r="F130" s="1">
-        <v>0.64975609756097497</v>
+        <v>0.95638820638820599</v>
       </c>
       <c r="G130" s="1">
         <v>0</v>
       </c>
       <c r="H130" s="1">
-        <v>9.908239433271519E-4</v>
+        <v>1.2062539686849001E-3</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="B131" t="s">
         <v>15</v>
@@ -4332,18 +4328,18 @@
         <v>0</v>
       </c>
       <c r="F131" s="1">
-        <v>0.88410419989367295</v>
+        <v>0.87050359712230196</v>
       </c>
       <c r="G131" s="1">
         <v>0</v>
       </c>
       <c r="H131" s="1">
-        <v>8.3784316683248295E-4</v>
+        <v>1.1178594571915801E-3</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="B132" t="s">
         <v>15</v>
@@ -4358,18 +4354,18 @@
         <v>0</v>
       </c>
       <c r="F132" s="1">
-        <v>0.517073170731707</v>
+        <v>0.96386946386946304</v>
       </c>
       <c r="G132" s="1">
         <v>0</v>
       </c>
       <c r="H132" s="1">
-        <v>5.4463651432630801E-3</v>
+        <v>1.3280739838689699E-3</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="B133" t="s">
         <v>15</v>
@@ -4384,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F133" s="1">
-        <v>0.89811512990320896</v>
+        <v>1.0013157894736799</v>
       </c>
       <c r="G133" s="1">
         <v>0</v>
       </c>
       <c r="H133" s="1">
-        <v>1.24451020041853E-3</v>
+        <v>1.3157894736842101E-3</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B134" t="s">
         <v>15</v>
@@ -4410,18 +4406,18 @@
         <v>0</v>
       </c>
       <c r="F134" s="1">
-        <v>0.82767232767232701</v>
+        <v>1.0013071895424801</v>
       </c>
       <c r="G134" s="1">
         <v>0</v>
       </c>
       <c r="H134" s="1">
-        <v>1.21845204221639E-3</v>
+        <v>1.4880800013652099E-3</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="B135" t="s">
         <v>15</v>
@@ -4436,18 +4432,18 @@
         <v>0</v>
       </c>
       <c r="F135" s="1">
-        <v>0.78584729981377999</v>
+        <v>0.92804946599213001</v>
       </c>
       <c r="G135" s="1">
         <v>0</v>
       </c>
       <c r="H135" s="1">
-        <v>1.10865705253128E-3</v>
+        <v>7.6201122963917296E-4</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="B136" t="s">
         <v>15</v>
@@ -4462,18 +4458,18 @@
         <v>0</v>
       </c>
       <c r="F136" s="1">
-        <v>0.91500000000000004</v>
+        <v>0.65551181102362199</v>
       </c>
       <c r="G136" s="1">
         <v>0</v>
       </c>
       <c r="H136" s="1">
-        <v>8.5357321339330297E-4</v>
+        <v>1.0442555300056501E-3</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="B137" t="s">
         <v>15</v>
@@ -4488,18 +4484,18 @@
         <v>0</v>
       </c>
       <c r="F137" s="1">
-        <v>0.45740149094781601</v>
+        <v>0.64975609756097497</v>
       </c>
       <c r="G137" s="1">
         <v>0</v>
       </c>
       <c r="H137" s="1">
-        <v>7.0166250940131402E-4</v>
+        <v>9.908239433271519E-4</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="B138" t="s">
         <v>15</v>
@@ -4514,18 +4510,18 @@
         <v>0</v>
       </c>
       <c r="F138" s="1">
-        <v>0.82294757665677498</v>
+        <v>0.88410419989367295</v>
       </c>
       <c r="G138" s="1">
         <v>0</v>
       </c>
       <c r="H138" s="1">
-        <v>1.16929299211393E-3</v>
+        <v>8.3784316683248295E-4</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="B139" t="s">
         <v>15</v>
@@ -4540,18 +4536,18 @@
         <v>0</v>
       </c>
       <c r="F139" s="1">
-        <v>0.72184466019417404</v>
+        <v>0.517073170731707</v>
       </c>
       <c r="G139" s="1">
         <v>0</v>
       </c>
       <c r="H139" s="1">
-        <v>9.8783228049349205E-4</v>
+        <v>5.4463651432630801E-3</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
@@ -4566,18 +4562,18 @@
         <v>0</v>
       </c>
       <c r="F140" s="1">
-        <v>0.46477987421383599</v>
+        <v>0.89811512990320896</v>
       </c>
       <c r="G140" s="1">
         <v>0</v>
       </c>
       <c r="H140" s="1">
-        <v>7.7875154663219605E-4</v>
+        <v>1.24451020041853E-3</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="B141" t="s">
         <v>15</v>
@@ -4592,21 +4588,21 @@
         <v>0</v>
       </c>
       <c r="F141" s="1">
-        <v>0</v>
+        <v>0.82767232767232701</v>
       </c>
       <c r="G141" s="1">
         <v>0</v>
       </c>
       <c r="H141" s="1">
-        <v>0</v>
+        <v>1.21845204221639E-3</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C142" s="1">
         <v>0</v>
@@ -4618,21 +4614,21 @@
         <v>0</v>
       </c>
       <c r="F142" s="1">
-        <v>0</v>
+        <v>0.78584729981377999</v>
       </c>
       <c r="G142" s="1">
         <v>0</v>
       </c>
       <c r="H142" s="1">
-        <v>0</v>
+        <v>1.10865705253128E-3</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C143" s="1">
         <v>0</v>
@@ -4644,21 +4640,21 @@
         <v>0</v>
       </c>
       <c r="F143" s="1">
-        <v>0</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="G143" s="1">
         <v>0</v>
       </c>
       <c r="H143" s="1">
-        <v>0</v>
+        <v>8.5357321339330297E-4</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C144" s="1">
         <v>0</v>
@@ -4670,21 +4666,21 @@
         <v>0</v>
       </c>
       <c r="F144" s="1">
-        <v>0</v>
+        <v>0.45740149094781601</v>
       </c>
       <c r="G144" s="1">
         <v>0</v>
       </c>
       <c r="H144" s="1">
-        <v>0</v>
+        <v>7.0166250940131402E-4</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C145" s="1">
         <v>0</v>
@@ -4696,21 +4692,21 @@
         <v>0</v>
       </c>
       <c r="F145" s="1">
-        <v>0</v>
+        <v>0.82294757665677498</v>
       </c>
       <c r="G145" s="1">
         <v>0</v>
       </c>
       <c r="H145" s="1">
-        <v>0</v>
+        <v>1.16929299211393E-3</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C146" s="1">
         <v>0</v>
@@ -4722,21 +4718,21 @@
         <v>0</v>
       </c>
       <c r="F146" s="1">
-        <v>0</v>
+        <v>0.72184466019417404</v>
       </c>
       <c r="G146" s="1">
         <v>0</v>
       </c>
       <c r="H146" s="1">
-        <v>0</v>
+        <v>9.8783228049349205E-4</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C147" s="1">
         <v>0</v>
@@ -4748,21 +4744,21 @@
         <v>0</v>
       </c>
       <c r="F147" s="1">
-        <v>0</v>
+        <v>0.46477987421383599</v>
       </c>
       <c r="G147" s="1">
         <v>0</v>
       </c>
       <c r="H147" s="1">
-        <v>0</v>
+        <v>7.7875154663219605E-4</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C148" s="1">
         <v>0</v>
@@ -4785,7 +4781,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
@@ -4811,7 +4807,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
@@ -4837,7 +4833,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -4863,7 +4859,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -4889,7 +4885,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
@@ -4915,7 +4911,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="B154" t="s">
         <v>10</v>
@@ -4941,7 +4937,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
@@ -4967,7 +4963,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="B156" t="s">
         <v>10</v>
@@ -4993,7 +4989,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="B157" t="s">
         <v>10</v>
@@ -5019,7 +5015,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="B158" t="s">
         <v>10</v>
@@ -5045,7 +5041,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -5071,7 +5067,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -5097,7 +5093,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
@@ -5121,11 +5117,220 @@
         <v>0</v>
       </c>
     </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>2013</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0</v>
+      </c>
+      <c r="G162" s="1">
+        <v>0</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>2014</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" s="1">
+        <v>0</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0</v>
+      </c>
+      <c r="G163" s="1">
+        <v>0</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>2015</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0</v>
+      </c>
+      <c r="G164" s="1">
+        <v>0</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>2016</v>
+      </c>
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="1">
+        <v>0</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0</v>
+      </c>
+      <c r="G165" s="1">
+        <v>0</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>2017</v>
+      </c>
+      <c r="B166" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0</v>
+      </c>
+      <c r="G166" s="1">
+        <v>0</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>2018</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0</v>
+      </c>
+      <c r="E167" s="1">
+        <v>0</v>
+      </c>
+      <c r="F167" s="1">
+        <v>0</v>
+      </c>
+      <c r="G167" s="1">
+        <v>0</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>2019</v>
+      </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0</v>
+      </c>
+      <c r="F168" s="1">
+        <v>0</v>
+      </c>
+      <c r="G168" s="1">
+        <v>0</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>2020</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0</v>
+      </c>
+      <c r="E169" s="1">
+        <v>0</v>
+      </c>
+      <c r="F169" s="1">
+        <v>0</v>
+      </c>
+      <c r="G169" s="1">
+        <v>0</v>
+      </c>
+      <c r="H169" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H162">
-    <sortCondition ref="B2:B162"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H170">
+    <sortCondition ref="B2:B170"/>
+    <sortCondition ref="A2:A170"/>
   </sortState>
-  <conditionalFormatting sqref="C2:H161">
+  <conditionalFormatting sqref="C2:H169">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/data/network_properties.xlsx
+++ b/data/network_properties.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ananyagangadhar/Desktop/M.Eng Project/Shortages_network/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DFF805CD-39FC-AB43-AD14-30A8AC7282E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE45358-E962-6B47-8589-F5BC94D32EA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="network_properties" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
@@ -922,14 +922,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
